--- a/data/tests/cluster_24.xlsx
+++ b/data/tests/cluster_24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,20 +486,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Rv0451c</t>
+          <t>Rv0669c</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>mmpS4 Rv0451c MTV037.15c</t>
+          <t>Rv0669c</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FUNCTION: Part of an export system, which is required for biosynthesis and secretion of siderophores. Essential for virulence. {ECO:0000269|PubMed:23431276}.</t>
+          <t>FUNCTION: Catalyzes the cleavage of the N-acyl linkage of the ceramides (Cers) to yield sphingosine (Sph) and free fatty acid. Also catalyzes the synthesis of Cers from Sph and fatty acid. Cers containning C6-C24 fatty acids are well hydrolyzed, and Cers with mono unsaturated fatty acids are much more hydrolyzed than those with saturated fatty acids. {ECO:0000269|PubMed:10593963, ECO:0000269|PubMed:20139604}.</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -509,7 +509,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Rv3537</t>
+          <t>Rv0451c</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -517,12 +517,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>kstD Rv3537</t>
+          <t>mmpS4 Rv0451c MTV037.15c</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FUNCTION: Involved in the degradation of cholesterol (PubMed:18031290, PubMed:21987574). Catalyzes the elimination of the C-1 and C-2 hydrogen atoms of the A-ring from the polycyclic ring structure of 3-ketosteroids (PubMed:18031290). Has a clear preference for 3-ketosteroids with a saturated A-ring, displaying highest activity on 5alpha-AD (5alpha-androstane-3,17-dione) and 5alpha-T (5alpha-testosterone, also known as 17beta-hydroxy-5alpha-androstane-3-one) (PubMed:18031290). Is also involved in the formation of 3-keto-1,4-diene-steroid from 3-keto-4-ene-steroid (PubMed:21987574). Catalyzes the conversion of 3-oxo-23,24-bisnorchol-4-en-22-oyl-coenzyme A thioester (4-BNC-CoA) to 3-oxo-23,24-bisnorchola-1,4-dien-22-oyl-coenzyme A thioester (1,4-BNC-CoA) (PubMed:21987574). {ECO:0000269|PubMed:18031290, ECO:0000269|PubMed:21987574}.</t>
+          <t>FUNCTION: Part of an export system, which is required for biosynthesis and secretion of siderophores. Essential for virulence. {ECO:0000269|PubMed:23431276}.</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -532,7 +532,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Rv2476c</t>
+          <t>Rv3537</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -540,12 +540,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>gdh Rv2476c</t>
+          <t>kstD Rv3537</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FUNCTION: Catalyzes the reversible conversion of L-glutamate to 2-oxoglutarate. {ECO:0000250}.</t>
+          <t>FUNCTION: Involved in the degradation of cholesterol (PubMed:18031290, PubMed:21987574). Catalyzes the elimination of the C-1 and C-2 hydrogen atoms of the A-ring from the polycyclic ring structure of 3-ketosteroids (PubMed:18031290). Has a clear preference for 3-ketosteroids with a saturated A-ring, displaying highest activity on 5alpha-AD (5alpha-androstane-3,17-dione) and 5alpha-T (5alpha-testosterone, also known as 17beta-hydroxy-5alpha-androstane-3-one) (PubMed:18031290). Is also involved in the formation of 3-keto-1,4-diene-steroid from 3-keto-4-ene-steroid (PubMed:21987574). Catalyzes the conversion of 3-oxo-23,24-bisnorchol-4-en-22-oyl-coenzyme A thioester (4-BNC-CoA) to 3-oxo-23,24-bisnorchola-1,4-dien-22-oyl-coenzyme A thioester (1,4-BNC-CoA) (PubMed:21987574). {ECO:0000269|PubMed:18031290, ECO:0000269|PubMed:21987574}.</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -555,20 +555,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Rv0669c</t>
+          <t>Rv2476c</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Rv0669c</t>
+          <t>gdh Rv2476c</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FUNCTION: Catalyzes the cleavage of the N-acyl linkage of the ceramides (Cers) to yield sphingosine (Sph) and free fatty acid. Also catalyzes the synthesis of Cers from Sph and fatty acid. Cers containning C6-C24 fatty acids are well hydrolyzed, and Cers with mono unsaturated fatty acids are much more hydrolyzed than those with saturated fatty acids. {ECO:0000269|PubMed:10593963, ECO:0000269|PubMed:20139604}.</t>
+          <t>FUNCTION: Catalyzes the reversible conversion of L-glutamate to 2-oxoglutarate. {ECO:0000250}.</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -595,6 +595,292 @@
         </is>
       </c>
       <c r="E7" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Rv3553</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ipdC Rv3553</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>FUNCTION: Involved in the final steps of cholesterol and steroid degradation (PubMed:28377529). Probably catalyzes the introduction of a double bound into the C ring of 5OH-HIC-CoA, leading to the formation of (5R,7aS)-5-hydroxy-7a-methyl-1-oxo-3,5,6,7-tetrahydro-2H-indene-4-carboxyl-CoA (Probable). {ECO:0000269|PubMed:28377529, ECO:0000305|PubMed:28377529}.</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Rv0693</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>mftC Rv0693</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>FUNCTION: Radical S-adenosylmethionine (SAM) enzyme responsible for the first step of the biosynthesis of the enzyme cofactor mycofactocin (MFT). Catalyzes two reactions at the C-terminus of the mycofactocin precursor (the MftA peptide). The first one is the oxidative decarboxylation of the C-terminal L-tyrosine of MftA, forming an unsaturated tyramine moiety. The second reaction is the cross-linking of the tyramine with the penultimate L-valine residue, forming a five-membered lactam ring. Its activity requires the presence of the MftB chaperone. {ECO:0000250|UniProtKB:A0PM49}.</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Rv0391</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>metZ Rv0391</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>FUNCTION: Catalyzes the formation of L-homocysteine from O-succinyl-L-homoserine (OSHS) and hydrogen sulfide. {ECO:0000255|HAMAP-Rule:MF_02056}.</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Rv1273c</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Rv1273c MTCY50.09</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Rv0362</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>mgtE Rv0362</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>FUNCTION: Acts as a magnesium transporter. {ECO:0000256|RuleBase:RU362011}.</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Rv1127c</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ppdK Rv1127c</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Rv3493c</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Rv3493c</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rv3548c</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Rv3548c</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Rv3549c</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Rv3549c</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Rv2047c</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Rv2047c</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Rv1627c</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Rv1627c</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Rv3503c</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>fdxD Rv3503c</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>FUNCTION: Ferredoxins are iron-sulfur proteins that transfer electrons in a wide variety of metabolic reactions. {ECO:0000256|RuleBase:RU368020}.</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Rv0390</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Rv0390</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Rv0320</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Rv0320</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="n">
         <v>24</v>
       </c>
     </row>
